--- a/src/public/crawl_data/data.xlsx
+++ b/src/public/crawl_data/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="291">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -26,6 +26,881 @@
   </si>
   <si>
     <t>Tên số báo</t>
+  </si>
+  <si>
+    <t>Chăm sóc, hỗ trợ tâm lý trong thảm hoạ</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng1, Nguyễn Như Lâm11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2022-09-20</t>
+  </si>
+  <si>
+    <t>Số 3 (2022)</t>
+  </si>
+  <si>
+    <t>Hiệu quả giảm đau sau phẫu thuật cắt hoại tử và ghép da bằng truyền tĩnh mạch liên tục hỗn hợp Nefopam và Morphin ở bệnh nhân bỏng.</t>
+  </si>
+  <si>
+    <t>Võ Văn Hiển1, Nguyễn Văn Quỳnh1, Cao Xuân Đường1, Đỗ Đăng Ngân2, Ninh Thị Kim Oanh31 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Học viện Quân Y3 Đại học Y Hà Nội</t>
+  </si>
+  <si>
+    <t>Nghiên cứu tác dụng điều trị vết thương thực nghiệm của gel nano Berberin trên lâm sàng.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Lê Quốc Chiểu1, Ngô Ngọc Hà11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả bước đầu ứng dụng kỹ thuật hút mỡ làm mỏng và mở rộng kích thước vạt da nhánh xuyên thượng vị dưới sâu trong điều trị sẹo co kéo vùng cằm cổ.</t>
+  </si>
+  <si>
+    <t>Vũ Quang Vinh1, Hoàng Thanh Tuấn1, Hoàng Tuấn Hoàng1, Tống Thanh Hải1, Đỗ Trung Quyết1, Khổng Hạnh Nguyên11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Cơ cấu và các yếu tố ảnh hưởng đến chi phí điều trị bệnh nhân bỏng nặng.</t>
+  </si>
+  <si>
+    <t>Ngô Tuấn Hưng1, Nguyễn Như Khánh2, Nguyễn Quang Hiếu11 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Trường THPT Chuyên Hà Nội - Amsterdam</t>
+  </si>
+  <si>
+    <t>Tác dụng làm liền vết bỏng của thuốc mỡ NCB trên chuột cống.</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hà Tuấn1, Nguyễn Xuân Khái1, Nguyễn Phương Thảo2, Hoàng Thị Tuyết Nhung2, Nguyễn Thị Hiên3, Nguyễn Văn Thanh3, Nguyễn Trung Hiếu4, Lê Hải Trung5, Hoàng Mỹ Hạnh5, Nguyễn Đình Ninh61 Bệnh viện Quân y 1032 Đại học Dược Hà Nội3 Viện y học Cổ truyền Quân đội4 Hội Gan Mật Việt Nam5 Bệnh viện Bỏng quốc gia Lê Hữu Trác6 Bệnh viện Châm cứu Trung Ương</t>
+  </si>
+  <si>
+    <t>Nghiên cứu độc tính bán cấp của gel nano Berberin trên cận lâm sàng và giải phẫu bệnh ở chuột cống trắng.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Lê Quốc Chiểu1, Nguyễn Thuỳ Linh21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Học viện Quân y</t>
+  </si>
+  <si>
+    <t>Nghiên cứu biến đổi hóa mô miễn dịch tại chỗ vết thương mạn tính được điều trị bằng huyết tương giàu tiểu cầu tự thân.</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng1, Nguyễn Ngọc Tuấn11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Gây tê tủy sống phẫu thuật nội soi ruột thừa trên bệnh nhân có nhiều bệnh nền</t>
+  </si>
+  <si>
+    <t>Lâm Ngọc Tú1, Nguyễn Ngọc Thạch1, Nguyễn Duy Anh11 Bệnh viện Quân y 103</t>
+  </si>
+  <si>
+    <t>Điều trị sẹo lồi bằng liệu pháp chiếu xạ nông sau phẫu thuật</t>
+  </si>
+  <si>
+    <t>Phan Thị Thục Trang1, Trần Vân Anh1, Vũ Quang Vinh1, Nguyễn Đoàn Tiến Linh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Sử dụng màng Lactic-Acid-Based Copolymer (LABC) trên vùng ghép da mảnh trung bình trong bỏng một phần và toàn bộ lớp da</t>
+  </si>
+  <si>
+    <t>Lược dịch: Hoàng Văn Vụ11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Vai trò tiên lượng của chỉ số De Ritis thời điểm vào viện ở bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Ngô Tuấn Hưng11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2022-05-06</t>
+  </si>
+  <si>
+    <t>Số 2 (2022)</t>
+  </si>
+  <si>
+    <t>Nghiên cứu tính kích ứng da của gel nano Berberin trên da lành của động vật thực nghiệm</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Lê Quốc Chiểu1, Nguyễn Thái Biềng21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Học viện Quân y</t>
+  </si>
+  <si>
+    <t>Đặc điểm rối loạn lo âu ở bệnh nhân bỏng giai đoạn phục hồi chức năng</t>
+  </si>
+  <si>
+    <t>Đặng Thành Quyết1, Tống Đức Minh1, Trần Khắc Chiến21 Học viện Quân y2 Bệnh viện Quân y 175</t>
+  </si>
+  <si>
+    <t>Đặc điểm albumin niệu và một số yếu tố liên quan của bệnh nhân đái tháo đường tuýp 2 đến khám tại Bệnh viện Đại học Y Hà Nội</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hùng1, Nguyễn Thị Kiều11 Viện Kiểm định quốc gia vắc xin và Sinh phẩm y tế, Bộ Y tế</t>
+  </si>
+  <si>
+    <t>Nghiên cứu độc tính bán cấp trên lâm sàng của gel nano Berberin ở chuột cống trắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Lê Quốc Chiểu1, Bùi Thị Bích Vân2, Đặng Văn Điệp21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Học viện Quân y</t>
+  </si>
+  <si>
+    <t>Đặc điểm và kết quả điều trị bệnh nhân bỏng nhiễm virus viêm gan B và C</t>
+  </si>
+  <si>
+    <t>Ngô Tuấn Hưng1, Nguyễn Như Lâm11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Kết quả chăm sóc người bệnh sau phẫu thuật gãy hở xương chi trên và một số yếu tố liên quan tại Bệnh viện Đa khoa Nông Nghiệp năm 2021</t>
+  </si>
+  <si>
+    <t>Lê Thị Mai Phương1, Phan Thị Dung21 Bệnh viện Đa khoa Nông nghiệp2 Trường Đại học Kinh doanh và Công nghệ Hà Nội</t>
+  </si>
+  <si>
+    <t>Thực trạng nhiễm tụ cầu vàng trên bàn tay của sinh viên kỹ thuật xét nghiệm Trường đại học Y Hà Nội</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hùng1, Nguyễn Thị Kiều11 Viện Kiểm định quốc gia vắc xin và Sinh phẩm y tế/Bộ Y tế</t>
+  </si>
+  <si>
+    <t>Đào tạo và huấn luyện đội hỗ trợ y tế khẩn cấp</t>
+  </si>
+  <si>
+    <t>Kiểm soát đường thở ở bệnh nhân sẹo bỏng co kéo mức độ nặng vùng cằm cổ bằng nội soi khí phế quản để phẫu thuật chuyển vạt vi phẫu</t>
+  </si>
+  <si>
+    <t>Lê Hải Trung1, Nguyễn Văn Quỳnh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Cập nhật về thuyên tắc phổi</t>
+  </si>
+  <si>
+    <t>Võ Văn Hiển1, Nguyễn Văn Quỳnh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Ketamine: Bằng chứng và sử dụng hiện nay</t>
+  </si>
+  <si>
+    <t>Lê Hải Trung11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan mô hình nghiên cứu vết thương thực nghiệm và phương pháp đánh giá quá trình liền vết thương. Phần II: Các phương pháp đánh giá quá trình liền vết thương</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2022-03-25</t>
+  </si>
+  <si>
+    <t>Số 1 (2022)</t>
+  </si>
+  <si>
+    <t>Nghiên cứu một số yếu tố ảnh hưởng đến kết quả điều trị của bệnh nhân bỏng nặng có biến chứng ARDS</t>
+  </si>
+  <si>
+    <t>Trần Đình Hùng1, Nguyễn Như Lâm11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Biến đổi số lượng tiểu cầu máu ngoại vi của bệnh nhân bỏng</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Đông1, Nguyễn Thị Mai Hương11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả bước đầu điều trị tổn thương phần mềm bằng Plasma lạnh tại bệnh viện Hữu nghị Việt Tiệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Đạo1, Lê Văn Tuấn1, Nguyễn Văn Dương1, Phan Anh1, Nguyễn Anh Tú1, Phạm Trung Dũng1, Đào Thị Minh Thu1, Hoàng Huyền Thu1, Nguyễn Thị Nhung1, Ngô Thị Minh Thuỳ11 Bệnh viện Hữu nghị Việt Tiệp</t>
+  </si>
+  <si>
+    <t>Bước đầu khảo sát sự biến đổi một số thông số huyết động bằng phương pháp USCOM ở tám bệnh nhân cắt hoại tử bỏng và ghép da</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Nguyễn Văn Quỳnh2, Đặng Đức Cảnh21 Bệnh viện Quân y 1032 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Vai trò tiên lượng của nồng độ Lactate và kiềm dư máu động mạch tại thời điểm vào viện sau bỏng</t>
+  </si>
+  <si>
+    <t>Đặc điểm và kết quả điều trị bệnh nhân bỏng có bảo hiểm y tế tại Bệnh viện Bỏng Quốc Gia</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức1, Nguyễn Như Lâm11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Ứng dụng thành công liệu pháp hút áp lực âm điều trị tổn thương bỏng sâu lộ gân, xương ngón tay ở trẻ em do dòng điện hạ thế</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương1, Lê Đức Mẫn1, Hồ Thị Vân Anh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Các chiến lược mới đối phó với nấm kháng thuốc</t>
+  </si>
+  <si>
+    <t>Lược dịch: Nguyễn Thái Ngọc Minh1, Lược dịch: Lương Quang Anh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Hướng dẫn của hội bỏng châu Á - Thái Bình Dương về Tổ chức ngân hàng da trong ứng dụng điều trị</t>
+  </si>
+  <si>
+    <t>Lược dịch: Vũ Tuấn Anh1, Lược dịch: Ngô Ngọc Hà11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Khám phá về cơ chế thụ cảm nhiệt độ và xúc giác của cơ thể người đoạt giải Nobel Y Sinh năm 2021</t>
+  </si>
+  <si>
+    <t>Xuân Việt</t>
+  </si>
+  <si>
+    <t>10 thảm họa tự nhiên chết người nhất năm 2021</t>
+  </si>
+  <si>
+    <t>COVID-19 và chứng sa sút trí tuệ: Các nhà khoa học có lo ngại?</t>
+  </si>
+  <si>
+    <t>Emergency medical services: Literature review.</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng1, Nguyễn Như Lâm1, Đoàn Chí Thanh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2022-01-26</t>
+  </si>
+  <si>
+    <t>Số 6 (2021)</t>
+  </si>
+  <si>
+    <t>Acute toxicity of nano Berberine gel in white mice.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Lê Quốc Chiểu1, Lê Thị Hồng Hạnh21 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Học viện Quân y</t>
+  </si>
+  <si>
+    <t>Evaluating medical response exercise for mass burn injuries at district and provincial hospital.</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Chu Anh Tuấn1, Lê Anh Tuấn21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Quân y 105</t>
+  </si>
+  <si>
+    <t>Encounter complications during treatment for radiation-ulcer: Five years inexperience.</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Tuấn1, Vũ Quang Vinh1, Trần Vân Anh1, Tống Thanh Hải1, Đỗ Trung Quyết11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Influences of Propranolol on outcomes of severely adult burn patients.</t>
+  </si>
+  <si>
+    <t>Phan Quốc Khánh1, Nguyễn Hải An2, Nguyễn Như Lâm21 Bệnh viện Quân y 4/Quân khu 42 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>General anesthesia for giant tumor resection and facial reconstruction in a patient with atrial fibrillation, hypertension, heart valve diseases (Case report).</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Nguyễn Quang Bình2, Lê Hải Trung3, Nguyễn Duy Toàn1, Trần Thanh Tuấn31 Bệnh viện Quân y 1032 Bệnh viện Răng Hàm Mặt Trung ương3 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Application of “chimeric” double anterolateral thigh flaps for reconstruction of massive postburn defect in head and face (Case report).</t>
+  </si>
+  <si>
+    <t>Vũ Quang Vinh1, Hoàng Thanh Tuấn1, Tống Thanh Hải1, Đỗ Trung Quyết1, Khổng Hạnh Nguyên1, Phạm Minh Trung21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Quân y 121/Quân khu 9</t>
+  </si>
+  <si>
+    <t>Launching Telehealth System at the Le Huu Trac National Burn Hospital.</t>
+  </si>
+  <si>
+    <t>Đại dịch covid-19 và phương án đáp ứng dưới góc nhìn y học thảm họa.</t>
+  </si>
+  <si>
+    <t>Đỗ Quyết1, Nguyễn Tiến Dũng2, Nguyễn Như Lâm2, Nguyễn Minh Phương 1, Nguyễn Tùng Linh 11 Học viện Quân y2 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-11-01</t>
+  </si>
+  <si>
+    <t>Số 5 (2021)</t>
+  </si>
+  <si>
+    <t>So sánh đặc điểm và kết quả điều trị bỏng điện cao thế và hạ thế</t>
+  </si>
+  <si>
+    <t>Ngô Tuấn Hưng1, Nguyễn Như Lâm1, Ngô Minh Đức11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Kết quả điều trị người cao tuổi bị bỏng và các yếu tố tiên lượng tử vong</t>
+  </si>
+  <si>
+    <t>Đặng Tất Thắng1, Chu Anh Tuấn2, Ngô Minh Đức21 Bệnh viện Đa khoa Saint Paul2 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Liều điều trị và tác dụng không mong muốn của Propranolol trên bệnh nhân người lớn bỏng nặng</t>
+  </si>
+  <si>
+    <t>Phan Quốc Khánh1, Nguyễn Như Lâm21 Bệnh viện Quân y 4 / Quân khu IV2 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá tác dụng điều trị của dung dịch điện hoá Suporan tại vết thương bỏng</t>
+  </si>
+  <si>
+    <t>Lâm Thị Đan Chi1, Đỗ Lương Tuấn1, Mai Xuân Thảo1, Đỗ Thị Kim Sơn11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Ảnh hưởng của tăng glucose máu đối với diễn biến và kết quả điều trị bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Phan Quốc Khánh2, Nguyễn Hải An11 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Quân y 4/Quân khu IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-12-27</t>
+  </si>
+  <si>
+    <t>Tổng quan mô hình nghiên cứu vết thương thực nghiệm và phương pháp đánh giá quá trình liền vết thương. Phần 1: Tổng quan về một số mô hình nghiên cứu liền vết thương trên động vật</t>
+  </si>
+  <si>
+    <t>Liệu pháp hút áp lực âm trong điều trị vết thương bàn tay trẻ em</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Điều trị nhiễm khuẩn huyết do tụ cầu vàng đề kháng Methicilin bằng phối hợp kháng sinh Fosfomycin và Amikacin trên 1 ca bệnh nhân bỏng</t>
+  </si>
+  <si>
+    <t>Lương Quang Anh1, Trần Quang Phú11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan về đội cấp cứu trong thảm họa cháy nổ và bỏng hàng loạt (Phần I).</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Đoàn Chí Thanh1, Nguyễn Tiến Dũng11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-08-30</t>
+  </si>
+  <si>
+    <t>Số 4 (2021)</t>
+  </si>
+  <si>
+    <t>Đặc điểm và kết quả điều trị bỏng lửa gas.</t>
+  </si>
+  <si>
+    <t>Ngô Tuấn Hưng1, Ngô Minh Đức1, Nguyễn Như Lâm11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đặc điểm bỏng người lớn và thách thức trong điều trị.</t>
+  </si>
+  <si>
+    <t>Mai Xuân Thảo1, Ngô Minh Đức1, Chu Anh Tuấn1, Lê Quốc Chiểu11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá hiệu quả điều trị phù bạch mạch chi thể bằng phương pháp nối bạch mạch - tĩnh mạch.</t>
+  </si>
+  <si>
+    <t>Tống Thanh Hải1, Vũ Quang Vinh1, Trần Vân Anh1, Hoàng Thanh Tuấn1, Đỗ Trung Quyết1, Hoàng Tuấn Hoàng1, Nguyễn Thị Ngọc Bích1, Khổng Hạnh Nguyên11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đặc điểm và ảnh hưởng của giới tính đến kết quả điều trị bỏng ở người cao tuổi.</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức1, Nguyễn Như Lâm11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan (cập nhật) hoạt tính sinh học của Berberin.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Hiệu quả của phương thức thông khí nhân tạo tư thế nằm sấp điều trị hội chứng suy hô hấp cấp tiến triển trên bệnh nhân bỏng nặng (Thông báo lâm sàng).</t>
+  </si>
+  <si>
+    <t>Lê Quang Thảo1, Nguyễn Hải An1, Trần Đình Hùng1, Nguyễn Thái Ngọc Minh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Gây tê tủy sống cho phẫu thuật ghép da trên bệnh nhân tiền sử cao huyết áp, suy thận, đái tháo đường, u tuyến yên (Thông báo lâm sàng).</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Mai Đình Hương1, Phạm Thái Dũng21 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Bệnh viện Quân y 103</t>
+  </si>
+  <si>
+    <t>Hiệu quả hạn chế của bổ sung albumin ở bệnh nhân bỏng nặng giảm albumin kéo dài.</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Tú1, Hồ Thị Vân Anh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>An toàn trong sử dụng dao lấy da điện trong đại dịch covid-19</t>
+  </si>
+  <si>
+    <t>Ngô Ngọc Hà11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Một số phương pháp giáo dục và đào tạo y học thảm họa hiện nay trên thế giới</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng1, Nguyễn Như Lâm 11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-09-28</t>
+  </si>
+  <si>
+    <t>Số 3 (2021)</t>
+  </si>
+  <si>
+    <t>Đặc điểm bỏng hàng loạt và kết quả điều trị: Số liệu 5 năm tại Bệnh viện Bỏng Quốc gia (2016 - 2020)</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức1, Chu Anh Tuấn1, Lê Quốc Chiểu11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu một số đặc điểm bỏng điện ở trẻ em điều trị tại Bệnh viện Bỏng Quốc gia từ tháng 1 năm 2017 đến tháng 12 năm 2019</t>
+  </si>
+  <si>
+    <t>Trần Đình Hùng1, Ngô Tuấn Hưng 11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Khảo sát nhu cầu và thực trạng thực hành chăm sóc người bệnh suy thận mạn tại Bệnh viện Đa khoa Nông nghiệp</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Ngọc Thục1, Nguyễn Thị Dân2, Phan Thị Dung31 Bệnh viện Đa khoa Nông nghiệp2 Trường Đại học Y dược/Đại học Quốc gia Hà Nội3 Trường Đại học Kinh doanh và Công nghệ Hà Nội</t>
+  </si>
+  <si>
+    <t>Nghiên cứu hiệu quả dự phòng buồn nôn, nôn và các tác dụng không mong muốn của Granisetron sau phẫu thuật tuyến giáp</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Anh1, Nguyễn Ngọc Thạch2, Trần Đắc Tiệp2, Phạm Thị Thanh Huyền31 Vietnam Military Medical University2 Military Hospital 1033 Bach Mai Hospital</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả chương trình tập huấn cho điều dưỡng tại Bệnh viện Hữu nghị Việt Nam - Cu Ba năm 2020</t>
+  </si>
+  <si>
+    <t>Phan Thị Dung11 Trường Đại học Kinh doanh và Công nghệ Hà Nội</t>
+  </si>
+  <si>
+    <t>Vai trò của Glycosaminoglycan và Hydroprolintrong liền vết thương</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Nguyễn Thị Hương11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả thực hiện bảng kiểm an toàn phẫu thuật tại Bệnh viện Đa khoa Nông nghiệp</t>
+  </si>
+  <si>
+    <t>Phan Thị Dung1, Phạm Thị Vân21 Trường Đại học Kinh doanh và Công nghệ Hà Nội2 Bệnh viện Đa khoa Nông nghiệp</t>
+  </si>
+  <si>
+    <t>“Đeo găng” Phương pháp hiệu quả trong thay băng bỏng bàn tay trẻ em.</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương1, Hồ Thị Vân Anh 11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu in vivo và in vitro về băng cellulose vi khuẩn chứa hạt nano Sulfadiazin Bạc sử dụng trong điều trị bỏng.</t>
+  </si>
+  <si>
+    <t>Hoàng Mỹ Hạnh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan công tác đào tạo y học thảm hoạ trên thế giới</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Nguyễn Tiến Dũng11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-10-26</t>
+  </si>
+  <si>
+    <t>Số 2 (2021)</t>
+  </si>
+  <si>
+    <t>Ảnh hưởng của bệnh kết hợp và vai trò của chỉ số CCI đối với kết quả điều trị bệnh nhân bỏng người già</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức1, Nguyễn Như Lâm1, Ngô Tuấn Hưng11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Biến đổi nồng độ Albumin huyết tương và các yếu tố liên quan ở bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Phan Quốc Khánh2, Nguyễn Hải An11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Bệnh viện Quân y 4 / Quân khu 4</t>
+  </si>
+  <si>
+    <t>Nghiên cứu hiệu quả của trị liệu huyết tương giàu tiểu cầu tự thân lên biến đổi siêu cấu trúc của vết thương mạn tính trên kính hiển vi điện tử quét</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng1, Nguyễn Ngọc Tuấn11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Khảo sát sự thay đổi số lượng tiểu cầu ở bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sơn1, Lê Đức Mẫn1, Lê Thị Thu Huyền21 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Bệnh viện Trung ương Quân đội 108</t>
+  </si>
+  <si>
+    <t>Nghiên cứu hiệu quả bước đầu của laser Fractional trong phục hồi chức năng vận động ở các khớp lớn với bệnh nhân có sẹo co kéo sau bỏng</t>
+  </si>
+  <si>
+    <t>Phan Thị Thục Trang1, Tống Thanh Hải1, Lê Quốc Vương1, Nguyễn Thị Vân Anh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Điều trị thành công bệnh nhân bỏng hô hấp mức độ nặng, biến chứng viêm phổi, nhiễm khuẩn huyết, suy đa tạng (Thông báo lâm sàng)</t>
+  </si>
+  <si>
+    <t>Lê Quang Thảo1, Nguyễn Thái Ngọc Minh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Sử dụng vạt cơ lưng rộng điều trị khuyết hổng thành ngực sau xạ trị ung thư vú (Thông báo lâm sàng)</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Tuấn1, Vũ Quang Vinh1, Trần Vân Anh1, Đỗ Trung Quyết1, Tô Ngọc Hiếu21 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Bệnh viện Đa khoa tỉnh Thanh Hoá</t>
+  </si>
+  <si>
+    <t>Vô cảm cho phẫu thuật cắt hoại tử bỏng ghép da ở bệnh nhân bạch cầu cấp (Thông báo lâm sàng)</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Nguyễn Quang Đông1, Phạm Thái Dũng21 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Bệnh viện Quân y 103</t>
+  </si>
+  <si>
+    <t>Nhiễm virus ở bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Tú11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu hiệu quả điều trị giữa phác đồ đơn trị liệu Colistin với phác đồ phối hợp Colistin - Carbapenem trên bệnh nhân nhiễm khuẩn nặng do vi khuẩn gram âm kháng Carbapenem</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hương11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đặc điểm và một số yếu tố tiên lượng tử vong ở bệnh nhân bỏng: Dữ liệu tại Bệnh viện Bỏng Quốc gia trong 10 năm (từ 2010 đến 2019).</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức1, Chu Anh Tuấn1, Nguyễn Gia Tiến1, Đỗ Xuân Hai2, Nguyễn Đức Thuận31 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Học viện Quân y3 Bệnh viện Quân y 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2020-02-28</t>
+  </si>
+  <si>
+    <t>Số 1 (2021)</t>
+  </si>
+  <si>
+    <t>Ảnh hưởng của thân nhiệt, nhiệt độ môi  trường đối với tiêu hao năng lượng lúc  nghỉ ở bệnh nhân bỏng nặng.</t>
+  </si>
+  <si>
+    <t>Phan Quốc Khánh1, Nguyễn Như Lâm2, Nguyễn Hải An21 Bệnh viện Quân y 42 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-02-28</t>
+  </si>
+  <si>
+    <t>Đánh giá hiệu quả khí dung bằng Heparin kết hợp với Pulmicort và N-acetylcystein trên bệnh nhân bỏng hô hấp tại Khoa Hồi sức cấp cứu, Bệnh viện Bỏng Quốc gia Lê Hữu Trác.</t>
+  </si>
+  <si>
+    <t>Ngô Tuấn Hưng1, Nguyễn Hải An2, Nguyễn Như Lâm21 Bệnh viện Bỏng Quốc gia Lê Hữu Trac2 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Phương pháp định lượng hình thái đánh giá kết quả nhuộm hóa mô miễn dịch bộc lộ dấu ấn kháng nguyên CD31, CD34 trên tế bào nội mô vi mạch mô da sau xạ trị.</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Tuấn1, Tưởng Phi Vương2, Vũ Quang Vinh1, Trịnh Tuấn Dũng31 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Viện 693 Bệnh viện Trung ương Quân đội 108</t>
+  </si>
+  <si>
+    <t>Đánh giá vai trò tiên lượng của chỉ số Baux sửa đổi (rBaux) trên bệnh nhân bỏng.</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Ngô Tuấn Hưng1, Ngô Minh Đức11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá kiến thức, thực hành về chăm sóc dự phòng viêm phổi thở máy của điều dưỡng tại Khoa Hồi sức cấp cứu, Bệnh viện Bỏng Quốc gia Lê Hữu Trác năm 2020.</t>
+  </si>
+  <si>
+    <t>Phan Trường Tuệ1, Hoàng Thị Uyên1, Phạm Ngọc Anh1, Hoàng Chung Hiếu11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Lựa chọn phương pháp vô cảm mổ lấy thai ở sản phụ bỏng (Thông báo lâm sàng).</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Phạm Thái Dũng21 Bệnh viện Bỏng Quốc gia Lê Hữu Trác2 Bệnh viện Quân y 103</t>
+  </si>
+  <si>
+    <t>Vô cảm cho phẫu thuật cắt hoại tử bỏng ghép da ở bệnh nhân tăng men gan phản ứng (Thông báo lâm sàng).</t>
+  </si>
+  <si>
+    <t>Vai trò của bài tập thở yoga pranayama đối với chức năng phổi, hoạt động của các cơ hô hấp và khả năng chịu đựng khi tập luyện trên người bệnh bỏng chu vi lồng ngực.</t>
+  </si>
+  <si>
+    <t>Lê Quốc Chiểu1, Nguyễn Như Lâm11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Hồi sức kịp thời và điều trị bỏng nặng ở trẻ em</t>
+  </si>
+  <si>
+    <t>Dương Văn Phú1, Lê Đức Mẫn11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu một số đặc điểm bỏng trẻ em dưới 6 tuổi điều trị tại Bệnh viện Bỏng Quốc gia.</t>
+  </si>
+  <si>
+    <t>Trần Đình Hùng1, Ngô Minh Đức11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2020-09-06</t>
+  </si>
+  <si>
+    <t>Số 4 (2020)</t>
+  </si>
+  <si>
+    <t>Đặc điểm lâm sàng và dịch tễ ở người cao tuổi bị bỏng điều trị tại Bệnh viện Bỏng Quốc gia trong 3 năm (2017 - 2019)</t>
+  </si>
+  <si>
+    <t>Đặng Tất Thắng1, Chu Anh Tuấn2, Ngô Minh Đức21 Bệnh viện Saint Paul (Hà Nội)2 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đặc điểm và vai trò tiên lượng của nồng độ Triglyceride huyết thanh ở bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Nguyễn Hải An1, Ngô Tuấn Hưng1, Phan Quốc Khánh21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Quân y 4/QK 4</t>
+  </si>
+  <si>
+    <t>Một số yếu tố liên quan tới kiến thức về vệ sinh tay của sinh viên đang học lâm sàng tại Bệnh viện Đa khoa Xanh Pôn</t>
+  </si>
+  <si>
+    <t>Lương Anh Vũ1, Phạm Văn Tân1, Vũ Phong Túc2, Đặng Thị Thu Ngà21 Trường Cao đẳng Y tế Hà Nội2 Trường Đại học Y Dược Thái Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2022-09-21</t>
+  </si>
+  <si>
+    <t>Nghiên cứu xây dựng quy trình sử dụng da đồng loại bảo quản bằng Glycerol 85% điều trị vết thương bỏng sâu</t>
+  </si>
+  <si>
+    <t>Chu Anh Tuấn1, Nguyễn Hải An1, Lê Quốc Chiểu, Nguyễn Nam Giang21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Đa khoa Saint Paul</t>
+  </si>
+  <si>
+    <t>Khảo sát tần suất mắc và kết quả điều trị viêm phổi liên quan thở máy trên bệnh nhân bỏng nặng tại Khoa hồi sức Cấp cứu, Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Trần Thị Dịu Hiền1, Nguyễn Hải An1, Trần Đình Hùng1, Ngô Tuấn Hưng11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu sự thay đổi hàm lượng EGF, VEGF của bệnh nhân có vết thương mạn tính được điều trị bằng huyết tương giàu tiểu cầu.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Nguyễn Tiến Dũng11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đặc điểm tổn thương mô bệnh học của động mạch ngoại vi ở chi thể tổn thương do dòng điện cao thế.</t>
+  </si>
+  <si>
+    <t>Trần Quang Phú1, Đỗ Lương Tuấn1, Mai Xuân Thảo1, Trương Đình Tiến21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Quân y 103</t>
+  </si>
+  <si>
+    <t>Nghiên cứu xác định công thức tối ưu tính nhu cầu năng lượng cho bệnh nhân bỏng nặng.</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm1, Phan Quốc Khánh2, Ngô Tuấn Hưng1, Nguyễn Hải An11 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Bệnh viện Quân y 4/Quân khu 4</t>
+  </si>
+  <si>
+    <t>Điều trị thành công bệnh nhi bỏng điện cao thế nặng</t>
+  </si>
+  <si>
+    <t>Hồ Thị Vân Anh1, Lê Đức Mẫn1, Nguyễn Ngọc Tuấn11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan về vạt tĩnh mạch được động mạch hóa</t>
+  </si>
+  <si>
+    <t>Lược dịch: Đỗ Trung Quyết11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Trao đổi oxy màng ngoài cơ thể trên bệnh nhân bỏng có hội chứng suy hô hấp cấp tiến triển</t>
+  </si>
+  <si>
+    <t>Lược dịch: Hồ Thị Vân Anh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tình hình thu dung và điều trị bệnh nhân bỏng nội trú tại Bệnh viện Bỏng Quốc gia Lê Hữu Trác năm 2019</t>
+  </si>
+  <si>
+    <t>Đoàn Chí Thanh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2020-07-02</t>
+  </si>
+  <si>
+    <t>Số 3 (2020)</t>
+  </si>
+  <si>
+    <t>Đánh giá thực trạng công tác an toàn truyền máu tại Bệnh viện Bỏng Quốc gia</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai Hương1, Nguyễn Gia Tiến1, Trần Ngọc Tuấn1, Trương Thu Hiền11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đánh giá tác dụng điều trị của gel Ceri Nitrat 2,2% tại chỗ tổn thương bỏng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Đỗ Kim Sơn1, Lâm Thị Đan Chi11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Thực trạng kiến thức về vệ sinh tay của sinh viên đang học lâm sàng tại Bệnh viện Đa khoa Xanh Pôn năm 2019 - 2020</t>
+  </si>
+  <si>
+    <t>Sử dụng máy xạ trị bề mặt (SRT-100) phối hợp với phẫu thuật trong điều trị ung thư biểu mô tế bào vảy (Thông báo lâm sàng)</t>
+  </si>
+  <si>
+    <t>Phan Thị Thục Trang1, Vũ Quang Vinh1, Đỗ Trung Quyết1, Nguyễn Tuấn Anh1, Vũ Tuấn Anh11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nhiễm trùng vết thương trên bệnh nhân bỏng nặng sử dụng thuốc nam. (Thông báo lâm sàng)</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Ngọc Minh1, Chu Anh Tuấn1, Lê Trần Anh21 Bệnh viện Bỏng quốc gia Lê Hữu Trác2 Học viện Quân y</t>
+  </si>
+  <si>
+    <t>Thâm nhiễm bạch cầu ái toan vào vết thương bỏng ở bệnh nhân cao tuổi và trẻ tuổi  (Bài dịch)</t>
+  </si>
+  <si>
+    <t>HƯỚNG dẫn của Hội Bỏng thế giới 2018. Phần 4. Tắc tĩnh mạch sâu ở bệnh nhân bỏng</t>
+  </si>
+  <si>
+    <t>Lược dịch: Nguyễn Như Lâm11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Đặc điểm quân nhân bị bỏng điều trị tại bệnh viện bỏng quốc gia trong 10 năm (2008 - 2017)</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2022-01-24</t>
+  </si>
+  <si>
+    <t>Số 2 (2020)</t>
+  </si>
+  <si>
+    <t>Đánh giá tác dụng điều trị tại chỗ vết thương chậm liền của dung dịch Ceri Nitrat 1,75%</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Bùi Thanh Lợi1, Phạm Thị Mai Phương11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2020-05-01</t>
+  </si>
+  <si>
+    <t>Kết quả bước đầu ứng dụng kỹ thuật hút mỡ làm mỏng vạt da trong phẫu thuật tạo hình thẩm mỹ</t>
+  </si>
+  <si>
+    <t>Đỗ Trung Quyết1, Vũ Quang Vinh1, Tống Thanh Hải11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu thu hồi, bảo quản da đồng loại bằng Glycerol 85% để điều trị vết thương, vết bỏng</t>
+  </si>
+  <si>
+    <t>Chu Anh Tuấn1, Đinh Văn Hân1, Nguyễn Quang Đông11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Bước đầu đánh giá tác dụng của Gabapentin đối với rối loạn cảm giác vùng sẹo bỏng</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Lợi1, Nguyễn Như Lâm1, Phạm Thị Mai Phương11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu giảm đau đường tĩnh mạch bằng Fentanyl do bệnh nhân tự điều khiển sau phẫu thuật tạo hình thẩm mỹ</t>
+  </si>
+  <si>
+    <t>Lê Hải Trung1, Nguyễn Ngọc Thạch1, Trần Thanh Tuấn1, Nguyễn Hồng Thái11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Gây mê nội khí quản cho phẫu thuật vi phẫu trên bệnh nhân ngoại tâm thu thất nhịp đôi (Thông báo lâm sàng)</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Nguyễn Tiến Dũng1, Nguyễn Văn Quỳnh1, Mai Đình Hương1, Phạm Thị Thu Hương1, Hoàng Kim Huệ1, Tống Thanh Hải11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan vai trò EGF, VEGF trong liền vết thương và ứng dụng</t>
+  </si>
+  <si>
+    <t>Kinh nghiệm và đề xuất điều trị bệnh nhân bỏng của chuyên gia trung quốc trong thời gian có dịch viêm đường hô hấp cấp do vi rút covid-19</t>
+  </si>
+  <si>
+    <t>Lược dịch: Hoàng Văn Tú11 Bệnh viện Bỏng quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Tổng quan ảnh hưởng của hạn hạn tới sức khỏe</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Trường1, Công Ngọc Long2, Lưu Quốc Toản2, Hà Văn Như21 Bộ Y tế2 Trường Đại học Y tế Công cộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xuất bản:
+                        2021-11-11</t>
+  </si>
+  <si>
+    <t>Số 1 (2020)</t>
+  </si>
+  <si>
+    <t>Biến đổi tiêu hao năng lượng lúc nghỉ và tác dụng của Propranolol trên bệnh nhân bỏng nặng</t>
+  </si>
+  <si>
+    <t>Phan Quốc Khánh1, Nguyễn Như Lâm2, Nguyễn Hải An21 Bệnh viện Quân y 4/ Quân khu 42 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Nghiên cứu khả năng dung nạp trên da lành và ảnh hưởng của Gel Nano cellulose khi dùng lâu dài trên động vật thực nghiệm.</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tuấn1, Lâm Thị Đan Chi1, Nguyễn Văn Thịnh11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Ứng dụng bộ đo huyết áp động mạch xâm nhập trong chẩn đoán và điều trị tăng áp lực khoang do bỏng sâu chu vi chi thể.</t>
+  </si>
+  <si>
+    <t>Lê Quang Thảo1, Chu Anh Tuấn1, Lê Văn Diện1, Nguyễn Hải An1, Nguyễn Thái Ngọc Minh1, Lê Quốc Chiểu11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Lựa chọn phương pháp vô cảm cho phẫu thuật cắt hoại tử ghép da trên bệnh nhân cao tuổi mắc nhiều bệnh nặng kết hợp (Thông báo lâm sàng).</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạch1, Nguyễn Hồng Thái11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Điều trị bỏng và di chứng bỏng dương vật bằng vạt da bìu.</t>
+  </si>
+  <si>
+    <t>Ngô Đức Hiệp1, Nguyễn Trọng Luyện11 Bệnh viện Chợ Rẫy</t>
+  </si>
+  <si>
+    <t>Sử dụng da đồng loại trong điều trị bỏng</t>
+  </si>
+  <si>
+    <t>Chu Anh Tuấn11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Hướng dẫn thực hành của hội bỏng thế giới 2018: Phần 3.3. Nhiễm khuẩn tiết niệu Phần 3.4. Nhiễm khuẩn vết thương bỏng</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Lâm11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Chăm sóc vết thương ngoài cộng đồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng1, Phạm Thị Hải Yến1, Đỗ Thị Thuý11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t>Kinh nghiệm của chuyên gia Trung Quốc về dự phòng và điều trị sẹo trên lâm sàng</t>
+  </si>
+  <si>
+    <t>Phan Thị Thục Trang11 Bệnh viện Bỏng Quốc gia Lê Hữu Trác</t>
   </si>
 </sst>
 </file>
@@ -402,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E134"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -425,6 +1300,2267 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>72</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>104</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>51</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>88</v>
+      </c>
+      <c r="B110" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" t="s">
+        <v>235</v>
+      </c>
+      <c r="E110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>130</v>
+      </c>
+      <c r="B111" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>42</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" t="s">
+        <v>255</v>
+      </c>
+      <c r="E117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" t="s">
+        <v>257</v>
+      </c>
+      <c r="D118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" t="s">
+        <v>255</v>
+      </c>
+      <c r="E121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>118</v>
+      </c>
+      <c r="B125" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>273</v>
+      </c>
+      <c r="C126" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" t="s">
+        <v>271</v>
+      </c>
+      <c r="E126" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>80</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>73</v>
+      </c>
+      <c r="B128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" t="s">
+        <v>271</v>
+      </c>
+      <c r="E128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>99</v>
+      </c>
+      <c r="B129" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" t="s">
+        <v>271</v>
+      </c>
+      <c r="E129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" t="s">
+        <v>282</v>
+      </c>
+      <c r="D130" t="s">
+        <v>271</v>
+      </c>
+      <c r="E130" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>119</v>
+      </c>
+      <c r="B131" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" t="s">
+        <v>284</v>
+      </c>
+      <c r="D131" t="s">
+        <v>271</v>
+      </c>
+      <c r="E131" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>116</v>
+      </c>
+      <c r="B132" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" t="s">
+        <v>286</v>
+      </c>
+      <c r="D132" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>36</v>
+      </c>
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C133" t="s">
+        <v>288</v>
+      </c>
+      <c r="D133" t="s">
+        <v>271</v>
+      </c>
+      <c r="E133" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>91</v>
+      </c>
+      <c r="B134" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" t="s">
+        <v>290</v>
+      </c>
+      <c r="D134" t="s">
+        <v>271</v>
+      </c>
+      <c r="E134" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
